--- a/inst/shinyApp/IUCN_results.xlsx
+++ b/inst/shinyApp/IUCN_results.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,20 +390,30 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Nbe_loc_PA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Category_CriteriaB</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Category_code</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Ratio_occ_within_PA</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Category_AOO</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Category_EOO</t>
         </is>
@@ -412,42 +422,52 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Anthonotha gilletii</t>
+          <t>Aphanocalyx obscurus Wieringa</t>
         </is>
       </c>
       <c r="B2">
-        <v>801797</v>
+        <v>323220</v>
       </c>
       <c r="C2">
-        <v>194.04</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>LC or NT</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>LC or NT B1a+B2a</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>6.7</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>LC or NT</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>LC or NT</t>
         </is>
